--- a/GP2Y0A41.xlsx
+++ b/GP2Y0A41.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\GP2D-GP2Y-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741714B-065C-4EA4-B040-262B9A0AE43F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0BBDC-7C04-4974-AF19-2A53C00A8FCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1177,139 +1177,139 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7446544336905527E-2</c:v>
+                  <c:v>0.16208930147128842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30947270393967269</c:v>
+                  <c:v>0.51476647784024765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56867574616053307</c:v>
+                  <c:v>0.9459160926234611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59089329162321858</c:v>
+                  <c:v>0.98287200982872014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58926126361087561</c:v>
+                  <c:v>0.98015734937254562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59989358872040444</c:v>
+                  <c:v>0.99784280103988066</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59836133841380879</c:v>
+                  <c:v>0.99529410746059299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59804943875360361</c:v>
+                  <c:v>0.99477530406540016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60279827426313448</c:v>
+                  <c:v>1.0026743571901644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59772032249096474</c:v>
+                  <c:v>0.99422786315328782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59793647522887172</c:v>
+                  <c:v>0.99458740434109361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5912399561900884</c:v>
+                  <c:v>0.98344863999935506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59187652471234553</c:v>
+                  <c:v>0.98450748665023835</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.60646900269541781</c:v>
+                  <c:v>1.0087801232953484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.595474629351045</c:v>
+                  <c:v>0.99049245278193632</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59418125111555764</c:v>
+                  <c:v>0.98834109096449207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59010773751224288</c:v>
+                  <c:v>0.98156534556491892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59779276517473934</c:v>
+                  <c:v>0.99434836187481412</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.60379601617215761</c:v>
+                  <c:v>1.0043339674942819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.60191065216190842</c:v>
+                  <c:v>1.001197916467333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.61406166786035665</c:v>
+                  <c:v>1.0214095069360389</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.60859755373471081</c:v>
+                  <c:v>1.0123206834399152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60797532616409189</c:v>
+                  <c:v>1.0112856910452221</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.61634261024272463</c:v>
+                  <c:v>1.0252035497106706</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.60041016784499968</c:v>
+                  <c:v>0.99870206136594009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.60497042267386192</c:v>
+                  <c:v>1.0062874357347407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.61373482376851896</c:v>
+                  <c:v>1.0208658454763484</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.61498322773015279</c:v>
+                  <c:v>1.0229423986006503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.60815166044166591</c:v>
+                  <c:v>1.0115789995465336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.61162886888261125</c:v>
+                  <c:v>1.0173628710126605</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6075110456553755</c:v>
+                  <c:v>1.0105134224762684</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.59523809523809523</c:v>
+                  <c:v>0.9900990099009902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.60089873550005213</c:v>
+                  <c:v>0.99951472835652255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6047966631908237</c:v>
+                  <c:v>1.0059984100599841</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.60694343287205632</c:v>
+                  <c:v>1.0095692744802522</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.60735049833887045</c:v>
+                  <c:v>1.0102463734745568</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6060292137159432</c:v>
+                  <c:v>1.0080485931116681</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5966371361417464</c:v>
+                  <c:v>0.99242612744369718</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.59824651882413604</c:v>
+                  <c:v>0.99510312042034532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.59856344772545889</c:v>
+                  <c:v>0.9956302892859118</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59759420140852315</c:v>
+                  <c:v>0.99401807759041472</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.60251275204546217</c:v>
+                  <c:v>1.0021994291449274</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5991899720591628</c:v>
+                  <c:v>0.99667242877167683</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.60217311516827554</c:v>
+                  <c:v>1.0016344885967357</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.60429722470904201</c:v>
+                  <c:v>1.0051676609021689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,8 +1807,8 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>16.8*((2914 / (B2 + 18) -1.5))</f>
-        <v>2306</v>
+        <f>10.1*((2914 / (B2 + 18) -1.5))</f>
+        <v>1386.3452380952381</v>
       </c>
       <c r="D2">
         <f>A2/C2</f>
@@ -1823,12 +1823,12 @@
         <v>365</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C47" si="0">16.8*((2914 / (B3 + 18) -1.5))</f>
-        <v>102.62036553524804</v>
+        <f t="shared" ref="C3:C47" si="0">10.1*((2914 / (B3 + 18) -1.5))</f>
+        <v>61.6943864229765</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D42" si="1">A3/C3</f>
-        <v>9.7446544336905527E-2</v>
+        <v>0.16208930147128842</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,11 +1840,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>64.626055045871567</v>
+        <v>38.852568807339452</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.30947270393967269</v>
+        <v>0.51476647784024765</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,11 +1856,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>52.754140127388546</v>
+        <v>31.715286624203824</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.56867574616053307</v>
+        <v>0.9459160926234611</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,11 +1872,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>67.694117647058832</v>
+        <v>40.69705882352941</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.59089329162321858</v>
+        <v>0.98287200982872014</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>76.366804979253118</v>
+        <v>45.910995850622406</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.58926126361087561</v>
+        <v>0.98015734937254562</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,11 +1904,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>83.348115299334808</v>
+        <v>50.108093126385803</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.59989358872040444</v>
+        <v>0.99784280103988066</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>91.917703349282306</v>
+        <v>55.260047846889954</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.59836133841380879</v>
+        <v>0.99529410746059299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,11 +1936,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>100.32615384615386</v>
+        <v>60.315128205128204</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.59804943875360361</v>
+        <v>0.99477530406540016</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>107.83043478260871</v>
+        <v>64.826630434782615</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.60279827426313448</v>
+        <v>1.0026743571901644</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>117.11162790697674</v>
+        <v>70.406395348837208</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.59772032249096474</v>
+        <v>0.99422786315328782</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,11 +1984,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>125.43138461538462</v>
+        <v>75.408153846153837</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.59793647522887172</v>
+        <v>0.99458740434109361</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>135.30885245901641</v>
+        <v>81.346393442622954</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.5912399561900884</v>
+        <v>0.98344863999935506</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,11 +2016,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>143.61103448275864</v>
+        <v>86.337586206896546</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.59187652471234553</v>
+        <v>0.98450748665023835</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>148.4</v>
+        <v>89.216666666666669</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.60646900269541781</v>
+        <v>1.0087801232953484</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>159.53660377358491</v>
+        <v>95.911886792452819</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.595474629351045</v>
+        <v>0.99049245278193632</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>168.29881422924902</v>
+        <v>101.17964426877469</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.59418125111555764</v>
+        <v>0.98834109096449207</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,11 +2080,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>177.93360995850622</v>
+        <v>106.9719917012448</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0.59010773751224288</v>
+        <v>0.98156534556491892</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>184.01025641025643</v>
+        <v>110.62521367521367</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0.59779276517473934</v>
+        <v>0.99434836187481412</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>190.46167400881058</v>
+        <v>114.50374449339206</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.60379601617215761</v>
+        <v>1.0043339674942819</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>199.3651376146789</v>
+        <v>119.85642201834861</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.60191065216190842</v>
+        <v>1.001197916467333</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>203.5626168224299</v>
+        <v>122.37990654205606</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.61406166786035665</v>
+        <v>1.0214095069360389</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,11 +2160,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>213.6058536585366</v>
+        <v>128.41780487804877</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0.60859755373471081</v>
+        <v>1.0123206834399152</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,11 +2176,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>222.04848484848486</v>
+        <v>133.49343434343436</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0.60797532616409189</v>
+        <v>1.0112856910452221</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,11 +2192,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>227.14639175257733</v>
+        <v>136.55824742268041</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0.61634261024272463</v>
+        <v>1.0252035497106706</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>249.82921348314608</v>
+        <v>150.19494382022472</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0.60041016784499968</v>
+        <v>0.99870206136594009</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,11 +2224,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>264.47573964497042</v>
+        <v>159.00029585798816</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.60497042267386192</v>
+        <v>1.0062874357347407</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,11 +2240,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>276.99259259259264</v>
+        <v>166.5253086419753</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0.61373482376851896</v>
+        <v>1.0208658454763484</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2256,11 +2256,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>292.69090909090909</v>
+        <v>175.96298701298699</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>0.61498322773015279</v>
+        <v>1.0229423986006503</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>312.42206896551727</v>
+        <v>187.8251724137931</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0.60815166044166591</v>
+        <v>1.0115789995465336</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>326.9956834532374</v>
+        <v>196.58669064748199</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0.61162886888261125</v>
+        <v>1.0173628710126605</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,11 +2304,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>345.67272727272729</v>
+        <v>207.81515151515148</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0.6075110456553755</v>
+        <v>1.0105134224762684</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,11 +2320,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>369.6</v>
+        <v>222.2</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>0.59523809523809523</v>
+        <v>0.9900990099009902</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>382.76000000000005</v>
+        <v>230.11166666666668</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>0.60089873550005213</v>
+        <v>0.99951472835652255</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,11 +2352,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>396.82758620689657</v>
+        <v>238.56896551724137</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0.6047966631908237</v>
+        <v>1.0059984100599841</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>411.90000000000003</v>
+        <v>247.63035714285712</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>0.60694343287205632</v>
+        <v>1.0095692744802522</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,11 +2384,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>428.0888888888889</v>
+        <v>257.36296296296297</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0.60735049833887045</v>
+        <v>1.0102463734745568</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>445.52307692307693</v>
+        <v>267.84423076923076</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>0.6060292137159432</v>
+        <v>1.0080485931116681</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,11 +2416,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>469.29696969696977</v>
+        <v>282.1368686868687</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>0.5966371361417464</v>
+        <v>0.99242612744369718</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,11 +2432,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>484.75000000000006</v>
+        <v>291.42708333333331</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>0.59824651882413604</v>
+        <v>0.99510312042034532</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>501.2</v>
+        <v>301.31666666666666</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>0.59856344772545889</v>
+        <v>0.9956302892859118</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>518.74666666666667</v>
+        <v>311.86555555555555</v>
       </c>
       <c r="D43">
         <f t="shared" ref="D43:D47" si="2">A43/C43</f>
-        <v>0.59759420140852315</v>
+        <v>0.99401807759041472</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,11 +2480,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>531.10909090909104</v>
+        <v>319.29772727272729</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>0.60251275204546217</v>
+        <v>1.0021994291449274</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,11 +2496,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>550.74352941176471</v>
+        <v>331.10176470588232</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>0.5991899720591628</v>
+        <v>0.99667242877167683</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,11 +2512,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>564.62168674698796</v>
+        <v>339.44518072289156</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>0.60217311516827554</v>
+        <v>1.0016344885967357</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>579.18518518518522</v>
+        <v>348.20061728395063</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>0.60429722470904201</v>
+        <v>1.0051676609021689</v>
       </c>
     </row>
   </sheetData>

--- a/GP2Y0A41.xlsx
+++ b/GP2Y0A41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\GP2D-GP2Y-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0BBDC-7C04-4974-AF19-2A53C00A8FCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC3A411-3241-490C-9A9D-90612DB779B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,6 +599,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GP2Y0A41 (5V sensor supply &amp; 5V ADC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -995,6 +1010,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>reference (5V sensor supply &amp; 5V ADC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1381,13 +1411,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1777,7 +1807,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C47"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
